--- a/docs/Warehouse Database Design.xlsx
+++ b/docs/Warehouse Database Design.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DWProject\WH_Nhom9_DongHo\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74316096-7E28-4D13-876F-AD73891D565A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48FF1F96-0EE0-4494-AAD7-32946B7EBDF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -267,15 +267,9 @@
     <t>November</t>
   </si>
   <si>
-    <t>year</t>
-  </si>
-  <si>
     <t>Ngày này thuộc năm bao nhiêu</t>
   </si>
   <si>
-    <t>year_month</t>
-  </si>
-  <si>
     <t>Ngày này thuộc năm tháng bao nhiêu</t>
   </si>
   <si>
@@ -391,6 +385,12 @@
   </si>
   <si>
     <t>Weekday</t>
+  </si>
+  <si>
+    <t>year_num</t>
+  </si>
+  <si>
+    <t>year_mo</t>
   </si>
 </sst>
 </file>
@@ -454,17 +454,17 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -815,8 +815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q64" sqref="Q64"/>
+    <sheetView tabSelected="1" topLeftCell="B28" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="Q67" sqref="Q67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -824,44 +824,44 @@
     <col min="15" max="15" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="62.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="124.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="124.28515625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="O1" s="3" t="s">
+      <c r="A1" s="5"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="O1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
       <c r="O2" t="s">
         <v>0</v>
       </c>
@@ -871,24 +871,24 @@
       <c r="Q2" t="s">
         <v>2</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="R2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
       <c r="N3">
         <v>1</v>
       </c>
@@ -901,24 +901,24 @@
       <c r="Q3" t="s">
         <v>40</v>
       </c>
-      <c r="R3" s="4" t="s">
+      <c r="R3" s="2" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
       <c r="N4">
         <v>2</v>
       </c>
@@ -931,24 +931,24 @@
       <c r="Q4" t="s">
         <v>28</v>
       </c>
-      <c r="R4" s="4" t="s">
+      <c r="R4" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
       <c r="N5">
         <v>3</v>
       </c>
@@ -961,24 +961,24 @@
       <c r="Q5" t="s">
         <v>29</v>
       </c>
-      <c r="R5" s="2" t="s">
+      <c r="R5" s="1" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
       <c r="N6">
         <v>4</v>
       </c>
@@ -991,24 +991,24 @@
       <c r="Q6" t="s">
         <v>30</v>
       </c>
-      <c r="R6" s="2" t="s">
+      <c r="R6" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
       <c r="N7">
         <v>5</v>
       </c>
@@ -1021,24 +1021,24 @@
       <c r="Q7" t="s">
         <v>31</v>
       </c>
-      <c r="R7" s="2" t="s">
+      <c r="R7" s="1" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
       <c r="N8">
         <v>6</v>
       </c>
@@ -1051,24 +1051,24 @@
       <c r="Q8" t="s">
         <v>32</v>
       </c>
-      <c r="R8" s="2" t="s">
+      <c r="R8" s="1" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
       <c r="N9">
         <v>7</v>
       </c>
@@ -1081,24 +1081,24 @@
       <c r="Q9" t="s">
         <v>33</v>
       </c>
-      <c r="R9" s="2">
+      <c r="R9" s="1">
         <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
       <c r="N10">
         <v>8</v>
       </c>
@@ -1111,24 +1111,24 @@
       <c r="Q10" t="s">
         <v>34</v>
       </c>
-      <c r="R10" s="2">
+      <c r="R10" s="1">
         <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
       <c r="N11">
         <v>9</v>
       </c>
@@ -1141,24 +1141,24 @@
       <c r="Q11" t="s">
         <v>35</v>
       </c>
-      <c r="R11" s="2" t="s">
+      <c r="R11" s="1" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
       <c r="N12">
         <v>10</v>
       </c>
@@ -1171,24 +1171,24 @@
       <c r="Q12" t="s">
         <v>36</v>
       </c>
-      <c r="R12" s="2" t="s">
+      <c r="R12" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
       <c r="N13">
         <v>11</v>
       </c>
@@ -1201,24 +1201,24 @@
       <c r="Q13" t="s">
         <v>37</v>
       </c>
-      <c r="R13" s="2" t="s">
+      <c r="R13" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
       <c r="N14">
         <v>12</v>
       </c>
@@ -1231,24 +1231,24 @@
       <c r="Q14" t="s">
         <v>38</v>
       </c>
-      <c r="R14" s="5" t="s">
+      <c r="R14" s="3" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
       <c r="N15">
         <v>13</v>
       </c>
@@ -1261,24 +1261,24 @@
       <c r="Q15" t="s">
         <v>39</v>
       </c>
-      <c r="R15" s="2" t="s">
+      <c r="R15" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
       <c r="N16">
         <v>14</v>
       </c>
@@ -1291,24 +1291,24 @@
       <c r="Q16" t="s">
         <v>61</v>
       </c>
-      <c r="R16" s="2" t="s">
+      <c r="R16" s="1" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
       <c r="N17">
         <v>15</v>
       </c>
@@ -1321,24 +1321,24 @@
       <c r="Q17" t="s">
         <v>41</v>
       </c>
-      <c r="R17" s="2" t="s">
+      <c r="R17" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
       <c r="N18">
         <v>16</v>
       </c>
@@ -1351,24 +1351,24 @@
       <c r="Q18" t="s">
         <v>43</v>
       </c>
-      <c r="R18" s="2" t="s">
+      <c r="R18" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
       <c r="N19">
         <v>17</v>
       </c>
@@ -1381,60 +1381,60 @@
       <c r="Q19" t="s">
         <v>42</v>
       </c>
-      <c r="R19" s="2" t="s">
+      <c r="R19" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="O21" s="3" t="s">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="O21" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="3"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
       <c r="O22" t="s">
         <v>0</v>
       </c>
@@ -1444,24 +1444,24 @@
       <c r="Q22" t="s">
         <v>2</v>
       </c>
-      <c r="R22" s="2" t="s">
+      <c r="R22" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
       <c r="N23">
         <v>1</v>
       </c>
@@ -1474,24 +1474,24 @@
       <c r="Q23" t="s">
         <v>40</v>
       </c>
-      <c r="R23" s="4" t="s">
+      <c r="R23" s="2" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
       <c r="N24">
         <v>2</v>
       </c>
@@ -1504,24 +1504,24 @@
       <c r="Q24" t="s">
         <v>28</v>
       </c>
-      <c r="R24" s="4" t="s">
+      <c r="R24" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
       <c r="N25">
         <v>3</v>
       </c>
@@ -1534,24 +1534,24 @@
       <c r="Q25" t="s">
         <v>29</v>
       </c>
-      <c r="R25" s="2" t="s">
+      <c r="R25" s="1" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
       <c r="N26">
         <v>4</v>
       </c>
@@ -1564,24 +1564,24 @@
       <c r="Q26" t="s">
         <v>30</v>
       </c>
-      <c r="R26" s="2" t="s">
+      <c r="R26" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
       <c r="N27">
         <v>5</v>
       </c>
@@ -1594,24 +1594,24 @@
       <c r="Q27" t="s">
         <v>31</v>
       </c>
-      <c r="R27" s="2" t="s">
+      <c r="R27" s="1" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
       <c r="N28">
         <v>6</v>
       </c>
@@ -1624,24 +1624,24 @@
       <c r="Q28" t="s">
         <v>32</v>
       </c>
-      <c r="R28" s="2" t="s">
+      <c r="R28" s="1" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
       <c r="N29">
         <v>7</v>
       </c>
@@ -1654,24 +1654,24 @@
       <c r="Q29" t="s">
         <v>33</v>
       </c>
-      <c r="R29" s="2">
+      <c r="R29" s="1">
         <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
       <c r="N30">
         <v>8</v>
       </c>
@@ -1684,24 +1684,24 @@
       <c r="Q30" t="s">
         <v>34</v>
       </c>
-      <c r="R30" s="2">
+      <c r="R30" s="1">
         <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
       <c r="N31">
         <v>9</v>
       </c>
@@ -1714,24 +1714,24 @@
       <c r="Q31" t="s">
         <v>35</v>
       </c>
-      <c r="R31" s="2" t="s">
+      <c r="R31" s="1" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
       <c r="N32">
         <v>10</v>
       </c>
@@ -1744,24 +1744,24 @@
       <c r="Q32" t="s">
         <v>36</v>
       </c>
-      <c r="R32" s="2" t="s">
+      <c r="R32" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
       <c r="N33">
         <v>11</v>
       </c>
@@ -1774,24 +1774,24 @@
       <c r="Q33" t="s">
         <v>37</v>
       </c>
-      <c r="R33" s="2" t="s">
+      <c r="R33" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
       <c r="N34">
         <v>12</v>
       </c>
@@ -1804,24 +1804,24 @@
       <c r="Q34" t="s">
         <v>38</v>
       </c>
-      <c r="R34" s="5" t="s">
+      <c r="R34" s="3" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
       <c r="N35">
         <v>13</v>
       </c>
@@ -1834,24 +1834,24 @@
       <c r="Q35" t="s">
         <v>39</v>
       </c>
-      <c r="R35" s="2" t="s">
+      <c r="R35" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
       <c r="N36">
         <v>14</v>
       </c>
@@ -1864,60 +1864,60 @@
       <c r="Q36" t="s">
         <v>61</v>
       </c>
-      <c r="R36" s="2" t="s">
+      <c r="R36" s="1" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="O38" s="3" t="s">
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="O38" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="P38" s="3"/>
-      <c r="Q38" s="3"/>
-      <c r="R38" s="3"/>
+      <c r="P38" s="6"/>
+      <c r="Q38" s="6"/>
+      <c r="R38" s="6"/>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="5"/>
       <c r="O39" t="s">
         <v>0</v>
       </c>
@@ -1927,608 +1927,608 @@
       <c r="Q39" t="s">
         <v>2</v>
       </c>
-      <c r="R39" s="2" t="s">
+      <c r="R39" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
+      <c r="A40" s="5"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
       <c r="N40">
         <v>1</v>
       </c>
       <c r="O40" t="s">
         <v>64</v>
       </c>
-      <c r="P40" s="6" t="s">
+      <c r="P40" s="4" t="s">
         <v>26</v>
       </c>
       <c r="Q40" t="s">
         <v>65</v>
       </c>
-      <c r="R40" s="2" t="s">
+      <c r="R40" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
+      <c r="A41" s="5"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="5"/>
       <c r="N41">
         <v>2</v>
       </c>
       <c r="O41" t="s">
         <v>59</v>
       </c>
-      <c r="P41" s="6" t="s">
+      <c r="P41" s="4" t="s">
         <v>59</v>
       </c>
       <c r="Q41" t="s">
         <v>66</v>
       </c>
-      <c r="R41" s="2" t="s">
+      <c r="R41" s="1" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
+      <c r="A42" s="5"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5"/>
+      <c r="L42" s="5"/>
+      <c r="M42" s="5"/>
       <c r="N42">
         <v>3</v>
       </c>
       <c r="O42" t="s">
         <v>68</v>
       </c>
-      <c r="P42" s="6" t="s">
+      <c r="P42" s="4" t="s">
         <v>26</v>
       </c>
       <c r="Q42" t="s">
         <v>69</v>
       </c>
-      <c r="R42" s="2" t="s">
+      <c r="R42" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
+      <c r="A43" s="5"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="5"/>
+      <c r="L43" s="5"/>
+      <c r="M43" s="5"/>
       <c r="N43">
         <v>4</v>
       </c>
       <c r="O43" t="s">
         <v>70</v>
       </c>
-      <c r="P43" s="6" t="s">
+      <c r="P43" s="4" t="s">
         <v>26</v>
       </c>
       <c r="Q43" t="s">
         <v>71</v>
       </c>
-      <c r="R43" s="2" t="s">
+      <c r="R43" s="1" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
-      <c r="L44" s="1"/>
-      <c r="M44" s="1"/>
+      <c r="A44" s="5"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5"/>
+      <c r="M44" s="5"/>
       <c r="N44">
         <v>5</v>
       </c>
       <c r="O44" t="s">
         <v>73</v>
       </c>
-      <c r="P44" s="6" t="s">
+      <c r="P44" s="4" t="s">
         <v>74</v>
       </c>
       <c r="Q44" t="s">
         <v>75</v>
       </c>
-      <c r="R44" s="2" t="s">
+      <c r="R44" s="1" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
-      <c r="L45" s="1"/>
-      <c r="M45" s="1"/>
+      <c r="A45" s="5"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="5"/>
+      <c r="L45" s="5"/>
+      <c r="M45" s="5"/>
       <c r="N45">
         <v>6</v>
       </c>
       <c r="O45" t="s">
         <v>77</v>
       </c>
-      <c r="P45" s="6" t="s">
+      <c r="P45" s="4" t="s">
         <v>74</v>
       </c>
       <c r="Q45" t="s">
         <v>78</v>
       </c>
-      <c r="R45" s="2" t="s">
+      <c r="R45" s="1" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
-      <c r="L46" s="1"/>
-      <c r="M46" s="1"/>
+      <c r="A46" s="5"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="5"/>
+      <c r="K46" s="5"/>
+      <c r="L46" s="5"/>
+      <c r="M46" s="5"/>
       <c r="N46">
         <v>7</v>
       </c>
       <c r="O46" t="s">
+        <v>120</v>
+      </c>
+      <c r="P46" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q46" t="s">
         <v>80</v>
       </c>
-      <c r="P46" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q46" t="s">
-        <v>81</v>
-      </c>
-      <c r="R46" s="2" t="s">
+      <c r="R46" s="1" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
-      <c r="L47" s="1"/>
-      <c r="M47" s="1"/>
+      <c r="A47" s="5"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="5"/>
+      <c r="K47" s="5"/>
+      <c r="L47" s="5"/>
+      <c r="M47" s="5"/>
       <c r="N47">
         <v>8</v>
       </c>
       <c r="O47" t="s">
+        <v>121</v>
+      </c>
+      <c r="P47" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>81</v>
+      </c>
+      <c r="R47" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="P47" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q47" t="s">
-        <v>83</v>
-      </c>
-      <c r="R47" s="2" t="s">
-        <v>84</v>
-      </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
-      <c r="L48" s="1"/>
-      <c r="M48" s="1"/>
+      <c r="A48" s="5"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="5"/>
+      <c r="K48" s="5"/>
+      <c r="L48" s="5"/>
+      <c r="M48" s="5"/>
       <c r="N48">
         <v>9</v>
       </c>
       <c r="O48" t="s">
+        <v>83</v>
+      </c>
+      <c r="P48" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>84</v>
+      </c>
+      <c r="R48" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="P48" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q48" t="s">
-        <v>86</v>
-      </c>
-      <c r="R48" s="2" t="s">
-        <v>87</v>
-      </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
-      <c r="L49" s="1"/>
-      <c r="M49" s="1"/>
+      <c r="A49" s="5"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="5"/>
+      <c r="K49" s="5"/>
+      <c r="L49" s="5"/>
+      <c r="M49" s="5"/>
       <c r="N49">
         <v>10</v>
       </c>
       <c r="O49" t="s">
+        <v>86</v>
+      </c>
+      <c r="P49" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>87</v>
+      </c>
+      <c r="R49" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="P49" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q49" t="s">
-        <v>89</v>
-      </c>
-      <c r="R49" s="2" t="s">
-        <v>90</v>
-      </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
-      <c r="K50" s="1"/>
-      <c r="L50" s="1"/>
-      <c r="M50" s="1"/>
+      <c r="A50" s="5"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="5"/>
+      <c r="J50" s="5"/>
+      <c r="K50" s="5"/>
+      <c r="L50" s="5"/>
+      <c r="M50" s="5"/>
       <c r="N50">
         <v>11</v>
       </c>
       <c r="O50" t="s">
+        <v>89</v>
+      </c>
+      <c r="P50" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>90</v>
+      </c>
+      <c r="R50" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="P50" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q50" t="s">
-        <v>92</v>
-      </c>
-      <c r="R50" s="2" t="s">
-        <v>93</v>
-      </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
-      <c r="K51" s="1"/>
-      <c r="L51" s="1"/>
-      <c r="M51" s="1"/>
+      <c r="A51" s="5"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="5"/>
+      <c r="K51" s="5"/>
+      <c r="L51" s="5"/>
+      <c r="M51" s="5"/>
       <c r="N51">
         <v>12</v>
       </c>
       <c r="O51" t="s">
+        <v>92</v>
+      </c>
+      <c r="P51" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>93</v>
+      </c>
+      <c r="R51" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="P51" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q51" t="s">
-        <v>95</v>
-      </c>
-      <c r="R51" s="2" t="s">
-        <v>96</v>
-      </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
-      <c r="I52" s="1"/>
-      <c r="J52" s="1"/>
-      <c r="K52" s="1"/>
-      <c r="L52" s="1"/>
-      <c r="M52" s="1"/>
+      <c r="A52" s="5"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="5"/>
+      <c r="J52" s="5"/>
+      <c r="K52" s="5"/>
+      <c r="L52" s="5"/>
+      <c r="M52" s="5"/>
       <c r="N52">
         <v>13</v>
       </c>
       <c r="O52" t="s">
+        <v>95</v>
+      </c>
+      <c r="P52" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>96</v>
+      </c>
+      <c r="R52" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="P52" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q52" t="s">
-        <v>98</v>
-      </c>
-      <c r="R52" s="2" t="s">
-        <v>99</v>
-      </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
-      <c r="I53" s="1"/>
-      <c r="J53" s="1"/>
-      <c r="K53" s="1"/>
-      <c r="L53" s="1"/>
-      <c r="M53" s="1"/>
+      <c r="A53" s="5"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="5"/>
+      <c r="J53" s="5"/>
+      <c r="K53" s="5"/>
+      <c r="L53" s="5"/>
+      <c r="M53" s="5"/>
       <c r="N53">
         <v>14</v>
       </c>
       <c r="O53" t="s">
+        <v>98</v>
+      </c>
+      <c r="P53" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>99</v>
+      </c>
+      <c r="R53" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="P53" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q53" t="s">
-        <v>101</v>
-      </c>
-      <c r="R53" s="2" t="s">
-        <v>102</v>
-      </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
-      <c r="I54" s="1"/>
-      <c r="J54" s="1"/>
-      <c r="K54" s="1"/>
-      <c r="L54" s="1"/>
-      <c r="M54" s="1"/>
+      <c r="A54" s="5"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="5"/>
+      <c r="K54" s="5"/>
+      <c r="L54" s="5"/>
+      <c r="M54" s="5"/>
       <c r="N54">
         <v>15</v>
       </c>
       <c r="O54" t="s">
+        <v>101</v>
+      </c>
+      <c r="P54" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>102</v>
+      </c>
+      <c r="R54" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="P54" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q54" t="s">
-        <v>104</v>
-      </c>
-      <c r="R54" s="2" t="s">
-        <v>105</v>
-      </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
-      <c r="H55" s="1"/>
-      <c r="I55" s="1"/>
-      <c r="J55" s="1"/>
-      <c r="K55" s="1"/>
-      <c r="L55" s="1"/>
-      <c r="M55" s="1"/>
+      <c r="A55" s="5"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5"/>
+      <c r="I55" s="5"/>
+      <c r="J55" s="5"/>
+      <c r="K55" s="5"/>
+      <c r="L55" s="5"/>
+      <c r="M55" s="5"/>
       <c r="N55">
         <v>16</v>
       </c>
       <c r="O55" t="s">
+        <v>104</v>
+      </c>
+      <c r="P55" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>105</v>
+      </c>
+      <c r="R55" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="P55" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q55" t="s">
-        <v>107</v>
-      </c>
-      <c r="R55" s="2" t="s">
-        <v>108</v>
-      </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
-      <c r="H56" s="1"/>
-      <c r="I56" s="1"/>
-      <c r="J56" s="1"/>
-      <c r="K56" s="1"/>
-      <c r="L56" s="1"/>
-      <c r="M56" s="1"/>
+      <c r="A56" s="5"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="5"/>
+      <c r="I56" s="5"/>
+      <c r="J56" s="5"/>
+      <c r="K56" s="5"/>
+      <c r="L56" s="5"/>
+      <c r="M56" s="5"/>
       <c r="N56">
         <v>17</v>
       </c>
       <c r="O56" t="s">
+        <v>107</v>
+      </c>
+      <c r="P56" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>108</v>
+      </c>
+      <c r="R56" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="P56" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q56" t="s">
-        <v>110</v>
-      </c>
-      <c r="R56" s="2" t="s">
-        <v>111</v>
-      </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
-      <c r="H57" s="1"/>
-      <c r="I57" s="1"/>
-      <c r="J57" s="1"/>
-      <c r="K57" s="1"/>
-      <c r="L57" s="1"/>
-      <c r="M57" s="1"/>
+      <c r="A57" s="5"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5"/>
+      <c r="I57" s="5"/>
+      <c r="J57" s="5"/>
+      <c r="K57" s="5"/>
+      <c r="L57" s="5"/>
+      <c r="M57" s="5"/>
       <c r="N57">
         <v>18</v>
       </c>
       <c r="O57" t="s">
+        <v>110</v>
+      </c>
+      <c r="P57" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>111</v>
+      </c>
+      <c r="R57" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="P57" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q57" t="s">
-        <v>113</v>
-      </c>
-      <c r="R57" s="2" t="s">
-        <v>114</v>
-      </c>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
-      <c r="I58" s="1"/>
-      <c r="J58" s="1"/>
-      <c r="K58" s="1"/>
-      <c r="L58" s="1"/>
-      <c r="M58" s="1"/>
+      <c r="A58" s="5"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="5"/>
+      <c r="I58" s="5"/>
+      <c r="J58" s="5"/>
+      <c r="K58" s="5"/>
+      <c r="L58" s="5"/>
+      <c r="M58" s="5"/>
       <c r="N58">
         <v>19</v>
       </c>
       <c r="O58" t="s">
+        <v>113</v>
+      </c>
+      <c r="P58" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q58" t="s">
         <v>115</v>
       </c>
-      <c r="P58" s="6" t="s">
+      <c r="R58" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="Q58" t="s">
-        <v>117</v>
-      </c>
-      <c r="R58" s="2" t="s">
-        <v>118</v>
-      </c>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
-      <c r="J59" s="1"/>
-      <c r="K59" s="1"/>
-      <c r="L59" s="1"/>
-      <c r="M59" s="1"/>
+      <c r="A59" s="5"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="5"/>
+      <c r="I59" s="5"/>
+      <c r="J59" s="5"/>
+      <c r="K59" s="5"/>
+      <c r="L59" s="5"/>
+      <c r="M59" s="5"/>
       <c r="N59">
         <v>20</v>
       </c>
       <c r="O59" t="s">
+        <v>117</v>
+      </c>
+      <c r="P59" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>118</v>
+      </c>
+      <c r="R59" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="P59" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q59" t="s">
-        <v>120</v>
-      </c>
-      <c r="R59" s="2" t="s">
-        <v>121</v>
       </c>
     </row>
   </sheetData>
